--- a/biology/Zoologie/Anthocharis/Anthocharis.xlsx
+++ b/biology/Zoologie/Anthocharis/Anthocharis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Anthocharis regroupe des lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Pierinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur nom anglais " Orangetip " montre leur particularité : les mâles ont l'apex des ailes antérieures orange vif.
 Les plantes hôtes de leurs larves sont des brassicacées (crucifères).
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anthocharis bambusarum Oberthür, 1886.
 Anthocharis belia (Linnaeus, 1767) — Aurore de Provence ou Aurore de Barbarie.
@@ -561,14 +577,14 @@
 Anthocharis limonea Butler.
 Anthocharis midea (Hübner, 1809).
 Anthocharis sara (Lucas, 1852).
-Anthocharis sara thoosa (Scudder, 1878) des montagnes Rocheuses jusqu'au Mexique[1]
+Anthocharis sara thoosa (Scudder, 1878) des montagnes Rocheuses jusqu'au Mexique
 Anthocharis scolymus (Riley, 1928).
 Anthocharis stella Edwards, 1879.
 Anthocharis stella stella — Stella Orangetip
 Anthocharis stella browningi — Utah Stella Orangetip
 Anthocharis taipaichana Verity, 1911.
 Anthocharis thibetana Oberthür, 1886.
-Anthocharis thoosa Scudder, 1878[2]</t>
+Anthocharis thoosa Scudder, 1878</t>
         </is>
       </c>
     </row>
